--- a/biology/Médecine/John_Latham_(médecin)/John_Latham_(médecin).xlsx
+++ b/biology/Médecine/John_Latham_(médecin)/John_Latham_(médecin).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>John_Latham_(m%C3%A9decin)</t>
+          <t>John_Latham_(médecin)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">John Latham, né à Gawsworth (Cheshire, Angleterre) le 29 décembre 1761 et mort le 20 avril 1843 à Bradwall Hall (Cheshire), est un médecin britannique des XVIIIe et XIXe siècles, président de 1813 à 1819 du Royal College of Physicians de Londres, où il met à jour la pharmacopée. Il est également connu pour avoir créé en 1790 le premier hôpital marin d’Angleterre.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>John_Latham_(m%C3%A9decin)</t>
+          <t>John_Latham_(médecin)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,17 +523,19 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">John Latham naît le 29 décembre 1761 à Gawsworth, comté de Chester[1]. Il est l'aîné des enfants de John Latham, de l'Oriel College (université d'Oxford)[2], et de Sarah Podmore[1].
-Après des études secondaires à Manchester, il entre au Brasenose College d'Oxford en 1778[1]. Il achève ses études de médecine à Londres, au St Bartholomew's Hospital sous la férule de David Pitcairn[1].
-Il exerce durant ses premières années professionnelles à Manchester et à Oxford. Il revient à Londres en 1788 et il admis l'année suivante au Collège royal de médecine, et au bout de quelques mois, il exerce au Middlesex Hospital, puis au couvent de la Madeleine[1].
-En 1790, il devient « médecin extraordinaire » du prince de Galles, puis accède à la même fonction dans la suite de George IV. En 1790, toujours, il crée le premier hôpital marin d’Angleterre[3].
-En 1792, il succède à David Pitcairn au St. Bartholomew, et s’installe à Bedford Row, où il demeure jusqu’en 1808, avant de déménager à Harley Street[1].
-John Latham devient membre de la Royal Society en 1801[4].
-De 1813 à 1819[3], il est président du Collège royal de médecine, où il met à jour la pharmacopée[5].
-En 1816, il fonde la Medical Benevolent Society[6], puis prend sa retraite en 1829[1].
-Il meurt le 20 avril 1843 à Bradwall Hall, propriété achetée en 1801, de complications après des calculs dans la vessie[7]. Il est enterré à St Mary's Church, Sandbach dans le Chester.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">John Latham naît le 29 décembre 1761 à Gawsworth, comté de Chester. Il est l'aîné des enfants de John Latham, de l'Oriel College (université d'Oxford), et de Sarah Podmore.
+Après des études secondaires à Manchester, il entre au Brasenose College d'Oxford en 1778. Il achève ses études de médecine à Londres, au St Bartholomew's Hospital sous la férule de David Pitcairn.
+Il exerce durant ses premières années professionnelles à Manchester et à Oxford. Il revient à Londres en 1788 et il admis l'année suivante au Collège royal de médecine, et au bout de quelques mois, il exerce au Middlesex Hospital, puis au couvent de la Madeleine.
+En 1790, il devient « médecin extraordinaire » du prince de Galles, puis accède à la même fonction dans la suite de George IV. En 1790, toujours, il crée le premier hôpital marin d’Angleterre.
+En 1792, il succède à David Pitcairn au St. Bartholomew, et s’installe à Bedford Row, où il demeure jusqu’en 1808, avant de déménager à Harley Street.
+John Latham devient membre de la Royal Society en 1801.
+De 1813 à 1819, il est président du Collège royal de médecine, où il met à jour la pharmacopée.
+En 1816, il fonde la Medical Benevolent Society, puis prend sa retraite en 1829.
+Il meurt le 20 avril 1843 à Bradwall Hall, propriété achetée en 1801, de complications après des calculs dans la vessie. Il est enterré à St Mary's Church, Sandbach dans le Chester.
 </t>
         </is>
       </c>
